--- a/medicine/Psychotrope/Caborde_des_Montboucons/Caborde_des_Montboucons.xlsx
+++ b/medicine/Psychotrope/Caborde_des_Montboucons/Caborde_des_Montboucons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La caborde des Montboucons est une cabane en pierre sèche viticole sise aux Montboucons à Besançon, en France. Elle est classée monument historique depuis 1982.
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'édifice, qui est situé au 12, rue François-Arago, a été classé monument historique le 4 octobre 1982[1]. Selon sa fiche, il date du XVIIe ou XVIIIe siècle.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'édifice, qui est situé au 12, rue François-Arago, a été classé monument historique le 4 octobre 1982. Selon sa fiche, il date du XVIIe ou XVIIIe siècle.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avec sa base cylindrique, son couvrement en forme de cloche débordant en rive, cette grande cabane de l’ancien vignoble de Besançon, relève d’un type morphologique répandu dans plusieurs régions à substrat calcaire (Dordogne, Lot, Corrèze, Aveyron, Saône-et-Loire, Ardèche, Hérault, Vaucluse, Bouches-du-Rhône, Alpes-de-Haute-Provence, Drôme, etc.)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec sa base cylindrique, son couvrement en forme de cloche débordant en rive, cette grande cabane de l’ancien vignoble de Besançon, relève d’un type morphologique répandu dans plusieurs régions à substrat calcaire (Dordogne, Lot, Corrèze, Aveyron, Saône-et-Loire, Ardèche, Hérault, Vaucluse, Bouches-du-Rhône, Alpes-de-Haute-Provence, Drôme, etc.).
 </t>
         </is>
       </c>
